--- a/News_Data.xlsx
+++ b/News_Data.xlsx
@@ -22,25 +22,13 @@
     <x:t>Content</x:t>
   </x:si>
   <x:si>
-    <x:t># Tesla agrees to mediation that could resolve US agency's racism lawsuit. Jan 13 (Reuters) - Tesla (TSLA.O), opens new tab agreed to enter mediation that could resolve the U.S. Equal Employment Opportunity Commission's lawsuit accusing Elon Musk's electric car maker of tolerating severe and widespread harassment of Black employees at its Fremont, California, assembly plant. In a Tuesday filing in San Francisco federal court, the agency said it is working with Tesla to choose a mediator, and negotiations could begin in March or April. The agency said that if settlement discussions and mediation are unsuccessful, both sides will make a proposal to the presiding judge by June 17 on what to do next. The agency sued Tesla in September 2023 during the Biden administration, saying the company's employment practices violated federal law. China on ​Wednesday reported a strong export run in 2025 with a record trillion-dollar surplus, as producers braced for three more years of a Trump ‌administration set on slowing the production powerhouse by shifting U.S. orders to other markets.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tesla (TSLA) Stock: Full Self-Driving Software Becomes Subscription-Only After Feb 14 - CoinCentral</x:t>
-  </x:si>
-  <x:si>
-    <x:t># Tesla (TSLA) Stock: Full Self-Driving Software Becomes Subscription-Only After Feb 14. Tesla (TSLA) stock: Company eliminates one-time FSD purchase option after Feb 14, shifting to subscription-only model as Musk pushes autonomous driving revenue. * Tesla will stop selling Full Self-Driving software as a one-time purchase after February 14, 2026, CEO Elon Musk announced. * The change affects new customers only; existing FSD owners who paid upfront will likely keep their access. * NHTSA is investigating 2.88 million Tesla vehicles with FSD following over 50 reports of traffic violations and crashes. * Musk is banking on self-driving technology as a growth driver as Tesla faces two consecutive years of declining car sales. Tesla will eliminate the option to buy Full Self-Driving software outright after February 14. Musk has repeatedly positioned self-driving technology and robotics as Tesla’s future growth engines. Tesla labels it as FSD (Supervised) for passenger vehicles. The National Highway Traffic Safety Administration opened an investigation into 2.88 million Tesla vehicles last year.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Can Tesla Stock Fall To $300? - Forbes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Our multi-faceted evaluation indicates that it might be an appropriate moment to divest from TSLA stock. We perceive there **is a roughly equal balance of positives and negatives in**TSLA stock considering its general **Moderate** operational performance and fiscal health. Forbes Daily: Join over 1 million Forbes Daily subscribers and get our best stories, exclusive reporting and essential analysis of the day’s news in your inbox every weekday. *   TSLA stock plummeted 73.6% from a peak of $409.97 on 4 November 2021 to $108.10 on 3 January 2023, compared to a peak-to-trough decline of 25.4% for the S&amp;P 500. *   TSLA stock dropped 60.6% from a peak of $61.16 on 19 February 2020 to $24.08 on 18 March 2020, while the S&amp;P 500 experienced a peak-to-trough decline of 33.9%. Check TSLA Dip Buyer Analyses to explore how the stock has bounced back from sharp declines in the past.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GMDC Secures Leadership-Category Provisional ESG Rating from CareEdge - TipRanks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Top Analyst StocksTop Smart Score Stocks. QCOM](/news/qualcomm-stock-qcom-jumps-after-firm-signs-two-major-auto-deals "QCOM | HYMLF | VWAGY"). Top Gainers/losers/active ETFs. Best High Yield Dividend Stocks. Gujarat Mineral Development Corporation Limited has received a provisional ESG rating score of 77.7 (CareEdge-ESG 1) from CareEdge ESG Ratings, placing the company in the “Leadership” category for environmental, social and governance risk management. Get real-time notifications on news &amp; analysis, curated for your stock watchlist. QCOM](/news/qualcomm-stock-qcom-jumps-after-firm-signs-two-major-auto-deals "QCOM | HYMLF | VWAGY"). NKEAAPL](/news/nike-stock-nke-is-downgraded-on-slow-turnaround-progress "NKE | AAPL"). STZ](/news/constellation-brands-stock-stz-jumps-despite-flagging-pressure-on-beer-sales "STZ"). MSFT](/news/100-percent-made-up-microsoft-stock-nasdaqmsft-slips-in-response-to-layoff-rumors "MSFT"). ### Tesla Stock (NASDAQ:TSLA) Gains as Elon Musk Explains Nvidia Buy. NVDATSLA](/news/tesla-stock-nasdaqtsla-gains-as-elon-musk-explains-nvidia-buy "NVDA | TSLA"). WMTSBUX](/news/new-competitors-on-all-sides-not-enough-to-slow-starbucks-stock-nasdaqsbux "WMT | SBUX"). FIGSAP](/news/wells-fargo-names-its-top-ai-driven-software-stocks-for-2026 "FIG | SAP | WFC | MSFT | ORCL | TTAN"). GS](/news/goldman-sachs-gs-forecasts-lower-but-attractive-stock-market-returns-in-2026 "GS"). ### Morning News Wrap-Up: Thursday’s Biggest Stock Market Stories! FAEP](/news/morning-news-wrap-up-thursdays-biggest-stock-market-stories-jan-8th "F | AEP | AMD | DIA | LLY | ACHR | ACON | ACRV | APLD | ATRA | CRWD | DJIA | FLYX | HIMS | HSBC | INTC | NVDA | QBTS | SONY | TSLA | VTYX").</x:t>
+    <x:t># Steam’s New Record Spells Trouble for Microsoft (MSFT) &amp; Sony. Steam hit a new all-time concurrent player count and this could spell trouble for Microsoft and Sony. The latest user data from Steam, private company Valve’s PC gaming platform, showed that Microsoft (MSFT) and Sony (SONY) could be in trouble. This new record reveals the massive growth in PC gaming and has increased competition for Microsoft’s Xbox and Sony’s PlayStation in the video game market. Here’s the thing: Valve is about to challenge Microsoft and Sony’s positions in the video game console market. ## **Microsoft &amp; Sony Stock Movements Today**. Sony stock was down 3.22% on Tuesday, building on a 4.8% drop year-to-date. SONY: Which Stock Do Analysts Prefer?**. Turning to the TipRanks stock comparison tool, traders can see which of these two stocks analysts favor. However, SONY stock has the higher upside potential at 39.52%, compared to a possible 33.42% upside for MSFT stock. **See more SONY &amp; MSFT stock comparisons**.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AuKing Mining Issues 6 Million Unquoted Options Expiring in 2026 - TipRanks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Top Analyst StocksTop Smart Score Stocks. NOWADBE](/news/goldman-sachs-names-3-top-software-buys-and-two-stocks-to-avoid "NOW | ADBE | DDOG | MSFT | ORCL"). Top Gainers/losers/active ETFs. Best High Yield Dividend Stocks. and never miss an update about AU:AKN stock! The most recent analyst rating on AKN) stock is a Sell with a A$0.01 price target. To see the full list of analyst forecasts on AuKing Mining Ltd stock, see the AU:AKN Stock Forecast page. For an in-depth examination of AKN stock, go to TipRanks’ Overview page. Get real-time notifications on news &amp; analysis, curated for your stock watchlist. NOWADBE](/news/goldman-sachs-names-3-top-software-buys-and-two-stocks-to-avoid "NOW | ADBE | DDOG | MSFT | ORCL"). Options Traders Are Expecting a 4.58% Move in WFC Stock. JPMWFC](/news/wells-fargo-is-about-to-report-its-q4-earnings-tomorrow-options-traders-are-expecting-a-4-58-move-in-wfc-stock "JPM | WFC"). BABA](/news/why-is-alibaba-stock-baba-up-over-10 "BABA"). TSLA](/news/prove-it-year-tesla-stock-nasdaqtsla-gains-as-tesla-faces-deadlines "TSLA"). BA](/news/boeing-stock-nyseba-gains-as-deliveries-surge-more-to-follow "BA"). ### Vertiv Stock (VRT) Dip Opens Door for Thrifty Options Traders. VRT](/news/vertiv-stock-vrt-dip-opens-door-for-thrifty-options-traders "VRT"). MSFT](/news/goldman-thinks-microsoft-stock-msft-is-being-underestimated "MSFT"). NOC](/news/donald-trumps-1-5t-defense-budget-reframes-the-case-for-northrop-grumman-stock-noc "NOC"). GME](/news/gamestop-stock-gme-stuck-in-neutral-as-sluggish-execution-takes-its-toll "GME"). EVTV](/news/why-envirotech-vehicles-evtv-stock-jumped-over-100-today-and-what-comes-next "EVTV | NASDAQ"). Options Traders Are Expecting a 4.58% Move in WFC Stock. ## Stock Comparison.</x:t>
   </x:si>
   <x:si>
     <x:t>Luca Mining Hits Wide High-Grade Gold Zones at Campo Morado and Expands Drilling - TipRanks</x:t>
@@ -49,7 +37,19 @@
     <x:t>Top Analyst StocksTop Smart Score Stocks. DIAQQQ](/news/u-s-stocks-face-near-term-underperformance-on-fed-independence-risks-says-jpmorgan "DIA | QQQ | SPY"). Top Gainers/losers/active ETFs. Best High Yield Dividend Stocks. The most recent analyst rating on (TSE:LUCA) stock is a Hold with a C$1.50 price target. To see the full list of analyst forecasts on Altaley Mining Corporation stock, see the TSE:LUCA Stock Forecast page. **Spark’s Take on TSE:LUCA Stock**. To see Spark’s full report on TSE:LUCA stock, click here. Learn more about LUCA stock on TipRanks’ Stock Analysis page. Get real-time notifications on news &amp; analysis, curated for your stock watchlist. NVDATSLA](/news/nvda-vs-tsla-one-mag-7-stock-looks-set-to-win-2026 "NVDA | TSLA"). MSFT](/news/goldman-thinks-microsoft-stock-msft-is-being-underestimated "MSFT"). EVTV](/news/why-envirotech-vehicles-evtv-stock-jumped-over-100-today-and-what-comes-next "EVTV | NASDAQ"). ### Frontline Stock (FRO) Rallies on a Renewal Plan &amp; an Analyst Upgrade. FRO](/news/frontline-stock-fro-rallies-on-a-renewal-plan-an-analyst-upgrade "FRO"). ### 3 “Strong Buy” Growth Stocks to Buy Now, According to Analysts – 1/12/2026. MAETN](/news/3-strong-buy-growth-stocks-to-buy-now-according-to-analysts-1-12-2026 "MA | ETN | ANET"). COINCRCL](/news/coinbase-stock-coin-in-focus-as-stablecoin-rewards-face-senate-scrutiny "COIN | CRCL"). ### Top Analysts Recommend Buying Nvidia Stock (NVDA), See Strong Upside in 2026. AVGOLITE](/news/top-analysts-recommend-buying-nvidia-stock-nvda-see-strong-upside-in-2026 "AVGO | LITE | NVDA").</x:t>
   </x:si>
   <x:si>
-    <x:t>Tesla agrees to mediation that could resolve US agency's racism lawsuit - Reuters</x:t>
+    <x:t>Viatris Inc. (NASDAQ: VTRS): Navigating the Pivot from Integration to Innovation - The Chronicle-Journal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Today, Viatris is no longer just a "generic drug giant" but an evolving healthcare entity focused on high-margin branded segments and innovative specialty medicine. 2. **Generics and Complex Generics:** This remains the company's "engine room." Viatris produces thousands of generic molecules. Viatris operates in a fiercely competitive environment, situated between low-cost generic manufacturers and high-cost "Big Pharma.". * **The Biosimilar Boom:** As high-cost biologic drugs lose patent protection, companies like Viatris are racing to launch biosimilar versions. * **Phase 2 Re-rating:** If Viatris achieves its goal of mid-single-digit revenue growth in 2026, the stock could undergo a "re-rating," moving from a generic-drug multiple (5x P/E) to a specialty pharma multiple (10x-12x P/E). For investors, the central question is whether Viatris can shed its "generic" label and successfully execute its specialty pharma strategy. Tickers AMZN GOOGL MSFT PLTR. Tickers AMZN CCJ META MSFT OKLO SMR.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Musk says Tesla’s Full Self-Driving to become subscription-only - TipRanks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stock Market News Today, 1/14/26 – U.S. Stock Futures Slip Amid Weak Bank Earnings, PPI Data Ahead. DIAQQQ](/news/stock-market-news-today-1-14-26-u-s-stock-futures-slip-amid-weak-bank-earnings-ppi-data-ahead "DIA | QQQ | SPY"). BAC](/news/bac-earnings-bank-of-america-stock-rises-as-investment-banking-fuels-q4-beat "BAC"). Top Gainers/losers/active ETFs. Best High Yield Dividend Stocks. AAPL](/news/american-moms-call-on-google-and-apple-to-remove-musks-x-from-app-stores "AAPL | GOOGL"). ### Vanguard Total Stock Market ETF (VTI) Daily Snapshot—1/14/25. CLBVTI](/news/vanguard-total-stock-market-etf-vti-daily-snapshot-1-14-25 "CLB | VTI | AAPL | AMZN | ATHA | AVGO | BCAB | JUNS | MSFT | NRXP | NVDA | PBYI | SKYE | SNBR | LAZRQ"). AAPL](/news/female-activists-call-for-musks-x-to-be-removed-from-google-and-apple-app-stores "AAPL | GOOGL"). ### GOOGL Stock Soars to Record High as the Market’s New AI Favorite. WMTAAPL](/news/googl-stock-soars-to-record-high-as-the-markets-new-ai-favorite "WMT | AAPL | MSFT | NVDA | GOOGL"). NVDA](/news/trade-tensions-and-ai-risks-are-reshaping-the-global-market-outlook-for-the-next-two-years "NVDA"). SMCI](/news/why-super-micro-stock-smci-is-sliding-and-what-goldman-sachs-sees-next "SMCI"). ZSNET](/news/avgo-panw-ftnt-cybersecurity-stocks-hit-as-china-cracks-down-on-u-s-israeli-software "ZS | NET | AVGO | CHKP | CRWD | FTNT | NVDA | PANW"). IBMAMZN](/news/qbts-rgti-ionq-mizuho-highlights-key-advances-in-quantum-computing-for-2026 "IBM | AMZN | IONQ | MSFT | QBTS | RGTI | GOOGL"). AMZNMETA](/news/amazon-stock-amzn-slips-as-it-prepares-to-battle-italian-watchdog-in-court "AMZN | META"). AMZN](/news/why-this-top-analyst-thinks-amazons-ad-revenue-can-double-by-2030 "AMZN"). GOOGL Stock Soars to Record High as the Market’s New AI Favorite.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steam’s New Record Spells Trouble for Microsoft (MSFT) &amp; Sony - TipRanks</x:t>
   </x:si>
 </x:sst>
 </file>
